--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_L0_(ADNmt)/Haplogroupe_L0_(ADNmt).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_L0_(ADNmt)/Haplogroupe_L0_(ADNmt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe L0 est un haplogroupe d'ADN mitochondrial humain (ADNmt). C'est le plus basal des haplogroupes mitochondriaux. On le trouve principalement dans les populations khoïsans d'Afrique australe et dans les populations voisines.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L0 est l'une des deux branches du dernier ancêtre matrilinéaire commun (DAMC), avec son groupe-frère composé des haplogroupes L1 à L6.
 </t>
@@ -542,7 +556,9 @@
           <t>Sous-clades</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe L0 compte cinq branches principales (L0a, L0b, L0d, L0f, L0k). Quatre d'entre elles étaient à l'origine classées comme des sous-clades de L1 : L1a, L1d, L1f et L1k.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L0 se trouve principalement en Afrique subsaharienne. Il atteint sa fréquence la plus élevée dans le peuple khoïsan, à 73 % en moyenne. Certaines des fréquences les plus élevées se trouvent en Namibie (!Xun, 79 %), en Afrique du Sud (Khwe/!Xun, 83 %), et au Botswana (!Kung, 100 %).
 L'haplogroupe L0d est le sous-clade le plus basal de L0. On le trouve aux fréquences les plus élevées dans les groupes khoisans d'Afrique australe. L0d est également fréquent dans les populations bantous d'Afrique du Sud, où les fréquences varient de 60 % à 71 %. Cela illustre la contribution maternelle massive des Khoisans aux Bantous d'Afrique du Sud.
